--- a/biology/Médecine/Johann_Friedrich_Meckel,_l'Ancien/Johann_Friedrich_Meckel,_l'Ancien.xlsx
+++ b/biology/Médecine/Johann_Friedrich_Meckel,_l'Ancien/Johann_Friedrich_Meckel,_l'Ancien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Meckel,_l%27Ancien</t>
+          <t>Johann_Friedrich_Meckel,_l'Ancien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Friedrich Meckel, dit l'Ancien est un anatomiste allemand, né à Wetzlar le 31 juillet 1724, mort à Berlin le 18 septembre 1774. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Meckel,_l%27Ancien</t>
+          <t>Johann_Friedrich_Meckel,_l'Ancien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études littéraires dans la maison de son père, conseiller à la cour impériale, et se rend à Gœttingue, à l’âge de dix-huit ans, pour y commencer ses études médicales. Après deux ans de séjour dans cette ville, où il reçoit des leçons de Haller, il va à Berlin et est bientôt nommé prosecteur de cette université. En 1747, il revient à Gœttingue, et y prend le grade de docteur (1748), après avoir soutenu une thèse remarquable sur les nerfs de la cinquième paire.
 En 1751, il est appelé à occuper à Berlin une chaire d’accouchements, position qu’il conserve pendant plus de vingt ans, et est nommé, en 1773, chirurgien du roi. 
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johann_Friedrich_Meckel,_l%27Ancien</t>
+          <t>Johann_Friedrich_Meckel,_l'Ancien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On lui doit les ouvrages suivants : 
 Dissertatio inauguralis de quinto pare nervorum cerebri (Gœttingue, 1748, in-4°);
